--- a/Projects-Automation/target/test-classes/DDT1file.xlsx
+++ b/Projects-Automation/target/test-classes/DDT1file.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="11">
   <si>
     <t>Initial Deposit amount</t>
   </si>
@@ -162,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -225,6 +225,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
@@ -621,7 +626,7 @@
       <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s" s="63">
+      <c r="G2" t="s" s="68">
         <v>8</v>
       </c>
     </row>
@@ -644,7 +649,7 @@
       <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="64">
+      <c r="G3" t="s" s="69">
         <v>8</v>
       </c>
     </row>
@@ -667,7 +672,7 @@
       <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s" s="65">
+      <c r="G4" t="s" s="70">
         <v>8</v>
       </c>
     </row>
@@ -690,7 +695,7 @@
       <c r="F5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="66">
+      <c r="G5" t="s" s="71">
         <v>8</v>
       </c>
     </row>
@@ -713,7 +718,7 @@
       <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G6" t="s" s="67">
+      <c r="G6" t="s" s="72">
         <v>10</v>
       </c>
     </row>

--- a/Projects-Automation/target/test-classes/DDT1file.xlsx
+++ b/Projects-Automation/target/test-classes/DDT1file.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="11">
   <si>
     <t>Initial Deposit amount</t>
   </si>
@@ -162,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -225,6 +225,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
@@ -626,7 +631,7 @@
       <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s" s="68">
+      <c r="G2" t="s" s="73">
         <v>8</v>
       </c>
     </row>
@@ -649,7 +654,7 @@
       <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="69">
+      <c r="G3" t="s" s="74">
         <v>8</v>
       </c>
     </row>
@@ -672,7 +677,7 @@
       <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s" s="70">
+      <c r="G4" t="s" s="75">
         <v>8</v>
       </c>
     </row>
@@ -695,7 +700,7 @@
       <c r="F5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="71">
+      <c r="G5" t="s" s="76">
         <v>8</v>
       </c>
     </row>
@@ -718,7 +723,7 @@
       <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G6" t="s" s="72">
+      <c r="G6" t="s" s="77">
         <v>10</v>
       </c>
     </row>
